--- a/report_template/abnormalReport.xlsx
+++ b/report_template/abnormalReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
-  <si>
     <t>測站</t>
   </si>
   <si>
@@ -62,13 +59,17 @@
   </si>
   <si>
     <t>測站異常狀況反應表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測站名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -256,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -291,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,7 +505,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -484,7 +519,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -493,7 +528,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -509,24 +544,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -535,7 +570,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -544,7 +579,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -553,7 +588,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -562,7 +597,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -571,7 +606,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
